--- a/final_project/gru_gbrbm_H_per_2 (drop 0.2)/type2/pd_results_W5_H200_B32.xlsx
+++ b/final_project/gru_gbrbm_H_per_2 (drop 0.2)/type2/pd_results_W5_H200_B32.xlsx
@@ -502,25 +502,25 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>0.5555555555555556</v>
+        <v>0.5425867507886435</v>
       </c>
       <c r="B2" t="n">
-        <v>0.6666666666666666</v>
+        <v>0.2631578947368421</v>
       </c>
       <c r="C2" t="n">
-        <v>0.9946236559139785</v>
+        <v>0.9247311827956989</v>
       </c>
       <c r="D2" t="n">
-        <v>0.01333333333333333</v>
+        <v>0.03333333333333333</v>
       </c>
       <c r="E2" t="n">
-        <v>0.5565476190476191</v>
+        <v>0.5267857142857143</v>
       </c>
       <c r="F2" t="n">
-        <v>0.7129094412331407</v>
+        <v>0.68389662027833</v>
       </c>
       <c r="G2" t="n">
-        <v>0.4880952380952381</v>
+        <v>0.4791666666666667</v>
       </c>
       <c r="H2" t="inlineStr">
         <is>
@@ -528,19 +528,19 @@
         </is>
       </c>
       <c r="I2" t="n">
-        <v>0.06448278360666326</v>
+        <v>0.04682150221206217</v>
       </c>
       <c r="J2" t="n">
-        <v>804.8527468034351</v>
+        <v>612.0749074956865</v>
       </c>
       <c r="K2" t="n">
-        <v>874698.2062570163</v>
+        <v>563453.4545649508</v>
       </c>
       <c r="L2" t="n">
-        <v>935.2530172402634</v>
+        <v>750.6353672489398</v>
       </c>
       <c r="M2" t="n">
-        <v>0.8388035248159338</v>
+        <v>0.8961622304053662</v>
       </c>
     </row>
   </sheetData>
